--- a/BOT0008 - CONTROLE.xlsx
+++ b/BOT0008 - CONTROLE.xlsx
@@ -257,7 +257,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -278,6 +278,7 @@
     <xf numFmtId="44" fontId="0" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="3" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -567,11 +568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +593,7 @@
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -613,21 +614,21 @@
       </c>
       <c r="H1" s="9">
         <f>E2*$B2+B2</f>
-        <v>4.6143999999999998</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.5573600000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8">
         <f>D34</f>
         <v>5.15</v>
       </c>
       <c r="B2" s="9">
-        <f>C2*3.2</f>
-        <v>0.82400000000000007</v>
+        <f>C2*1.8</f>
+        <v>0.27810000000000001</v>
       </c>
       <c r="C2" s="9">
-        <f>A2*0.05</f>
-        <v>0.25750000000000001</v>
+        <f>A2*0.03</f>
+        <v>0.1545</v>
       </c>
       <c r="D2" s="16">
         <v>3.6</v>
@@ -641,37 +642,37 @@
       </c>
       <c r="H2" s="9">
         <f>$E$2*H1+H1</f>
-        <v>25.840639999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
+        <v>8.7212160000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="9">
         <f>$E$2*H2+H2</f>
-        <v>144.70758399999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+        <v>48.838809599999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="9">
         <f>$E$2*H3+H3</f>
-        <v>810.36247039999978</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+        <v>273.49733376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="G5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="9">
         <f>$E$2*H4+H4</f>
-        <v>4538.0298342399983</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1531.5850690559998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -685,7 +686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>43796</v>
       </c>
@@ -700,7 +701,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <f>A7+1</f>
         <v>43797</v>
@@ -717,7 +718,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <f t="shared" ref="A9:A34" si="1">A8+1</f>
         <v>43798</v>
@@ -733,8 +734,9 @@
         <f t="shared" si="0"/>
         <v>4.9300000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <f t="shared" si="1"/>
         <v>43799</v>
@@ -751,7 +753,7 @@
         <v>4.6300000000000008</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <f t="shared" si="1"/>
         <v>43800</v>
@@ -768,7 +770,7 @@
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <f t="shared" si="1"/>
         <v>43801</v>
@@ -786,7 +788,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <f t="shared" si="1"/>
         <v>43802</v>
@@ -803,7 +805,7 @@
         <v>4.57</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <f t="shared" si="1"/>
         <v>43803</v>
@@ -820,7 +822,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <f t="shared" si="1"/>
         <v>43804</v>
@@ -837,7 +839,7 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <f t="shared" si="1"/>
         <v>43805</v>
